--- a/grade/data/StudentEvaluationP2andP3.xlsx
+++ b/grade/data/StudentEvaluationP2andP3.xlsx
@@ -5,11 +5,11 @@
   <workbookPr filterPrivacy="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tommydang/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tommydang/Desktop/github/CS5331-VR/grade/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="26180" windowHeight="17540" activeTab="1"/>
+    <workbookView xWindow="4260" yWindow="1980" windowWidth="26180" windowHeight="17540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4056,8 +4056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="AI46" sqref="AI46"/>
+    <sheetView tabSelected="1" topLeftCell="AF1" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="95" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4398,7 +4398,7 @@
         <v>14</v>
       </c>
       <c r="AG3">
-        <f t="shared" ref="AG3:AI39" si="1">AF3*2/14</f>
+        <f t="shared" ref="AG3:AG39" si="1">AF3*2/14</f>
         <v>2</v>
       </c>
       <c r="AH3">
